--- a/HW6/活頁簿1.xlsx
+++ b/HW6/活頁簿1.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/meg/Downloads/ML/HW6/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0850241B-30F3-0147-BD19-3148082DF681}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94FE8E11-7C76-E740-A908-F7023174488C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3580" yWindow="18500" windowWidth="25600" windowHeight="15500" xr2:uid="{E05A1B53-5719-BF47-81F2-522C8F293684}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="30">
   <si>
     <t>ori</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -71,6 +71,80 @@
   </si>
   <si>
     <t xml:space="preserve">	0.412</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>epoch50</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>critic5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>clip0.01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Medium Baseline</t>
+  </si>
+  <si>
+    <t>Strong Baseline</t>
+  </si>
+  <si>
+    <t>epoch90</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>critic": 5</t>
+  </si>
+  <si>
+    <t>epoch120</t>
+  </si>
+  <si>
+    <t>epoch120</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>critic": 6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>clip_value 0.01,</t>
+  </si>
+  <si>
+    <t>clip_value 0.01,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>epoch150</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>critic": 5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>clip_value: 0.01,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>critic": 4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WGAN</t>
+  </si>
+  <si>
+    <t>critic": 3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>epoch200</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>epoch175</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -78,7 +152,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="7">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -97,6 +171,34 @@
     <font>
       <sz val="14"/>
       <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="新細明體"/>
+      <family val="2"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="新細明體"/>
+      <family val="1"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FFFF0000"/>
       <name val="Helvetica Neue"/>
       <family val="2"/>
     </font>
@@ -123,7 +225,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -131,6 +233,24 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -447,15 +567,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EADA51F7-E3DD-024A-ACB0-3CA998E5FC3A}">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:K16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView tabSelected="1" zoomScale="138" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13:H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col min="8" max="8" width="11.33203125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:11">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -475,7 +598,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:11">
       <c r="A2">
         <v>0.3</v>
       </c>
@@ -495,7 +618,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="18">
+    <row r="3" spans="1:11" ht="18">
       <c r="B3" s="1">
         <v>0.34899999999999998</v>
       </c>
@@ -512,7 +635,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="18">
+    <row r="4" spans="1:11" ht="18">
       <c r="D4" s="1">
         <v>9.1999999999999998E-2</v>
       </c>
@@ -523,13 +646,206 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:11">
       <c r="F5" s="2">
         <v>20621.34</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="B7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D7" t="s">
+        <v>1</v>
+      </c>
+      <c r="E7" t="s">
+        <v>1</v>
+      </c>
+      <c r="F7" t="s">
+        <v>1</v>
+      </c>
+      <c r="G7" t="s">
+        <v>1</v>
+      </c>
+      <c r="H7" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="I7" t="s">
+        <v>1</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="K7" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="B8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E8" t="s">
+        <v>18</v>
+      </c>
+      <c r="F8" t="s">
+        <v>22</v>
+      </c>
+      <c r="G8" t="s">
+        <v>22</v>
+      </c>
+      <c r="H8" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="I8" t="s">
+        <v>28</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="K8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="B9">
+        <v>0.13700000000000001</v>
+      </c>
+      <c r="C9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" t="s">
+        <v>16</v>
+      </c>
+      <c r="E9" t="s">
+        <v>19</v>
+      </c>
+      <c r="F9" t="s">
+        <v>23</v>
+      </c>
+      <c r="G9" t="s">
+        <v>25</v>
+      </c>
+      <c r="H9" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="I9" t="s">
+        <v>25</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="B10" s="2">
+        <v>21258.55</v>
+      </c>
+      <c r="C10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10" t="s">
+        <v>24</v>
+      </c>
+      <c r="E10" t="s">
+        <v>21</v>
+      </c>
+      <c r="F10" t="s">
+        <v>21</v>
+      </c>
+      <c r="G10" t="s">
+        <v>21</v>
+      </c>
+      <c r="H10" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="I10" t="s">
+        <v>21</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="K10" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="18">
+      <c r="D11" s="2">
+        <v>10658.67</v>
+      </c>
+      <c r="E11" s="2">
+        <v>10088.01</v>
+      </c>
+      <c r="F11" s="2">
+        <v>10000.219999999999</v>
+      </c>
+      <c r="G11" s="2">
+        <v>10146.83</v>
+      </c>
+      <c r="H11" s="7">
+        <v>9755.75</v>
+      </c>
+      <c r="I11" s="2">
+        <v>9670.2800000000007</v>
+      </c>
+      <c r="K11" s="4"/>
+    </row>
+    <row r="12" spans="1:11" ht="18">
+      <c r="D12" s="1">
+        <v>0.49</v>
+      </c>
+      <c r="E12" s="1">
+        <v>0.498</v>
+      </c>
+      <c r="F12" s="1">
+        <v>0.48799999999999999</v>
+      </c>
+      <c r="G12" s="1">
+        <v>0.51800000000000002</v>
+      </c>
+      <c r="H12" s="8">
+        <v>0.51</v>
+      </c>
+      <c r="I12" s="1">
+        <v>0.48699999999999999</v>
+      </c>
+      <c r="K12" s="5"/>
+    </row>
+    <row r="15" spans="1:11" ht="18">
+      <c r="A15" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="D15" s="2">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="18">
+      <c r="A16" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C16" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="D16" s="2">
+        <v>12000</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
--- a/HW6/活頁簿1.xlsx
+++ b/HW6/活頁簿1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/meg/Downloads/ML/HW6/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94FE8E11-7C76-E740-A908-F7023174488C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AA622CF-47D1-744F-A370-42DEF2E1C8E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3580" yWindow="18500" windowWidth="25600" windowHeight="15500" xr2:uid="{E05A1B53-5719-BF47-81F2-522C8F293684}"/>
+    <workbookView xWindow="9000" yWindow="500" windowWidth="19480" windowHeight="12300" xr2:uid="{E05A1B53-5719-BF47-81F2-522C8F293684}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="41">
   <si>
     <t>ori</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -145,6 +145,48 @@
   </si>
   <si>
     <t>epoch175</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>epoch</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>critic</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>clip</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>layer1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>layer2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>layer3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>base e</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>應該是c=0.1是越來越小</t>
+  </si>
+  <si>
+    <t>C=0.01和0.001是越來越大</t>
+  </si>
+  <si>
+    <t>WGAN-P</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>layer4</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -567,10 +609,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EADA51F7-E3DD-024A-ACB0-3CA998E5FC3A}">
-  <dimension ref="A1:K16"/>
+  <dimension ref="A1:K29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="138" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13:H15"/>
+    <sheetView tabSelected="1" topLeftCell="A17" zoomScale="138" workbookViewId="0">
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -843,6 +885,145 @@
         <v>12000</v>
       </c>
     </row>
+    <row r="18" spans="1:5">
+      <c r="A18" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="B21" t="s">
+        <v>1</v>
+      </c>
+      <c r="C21" t="s">
+        <v>1</v>
+      </c>
+      <c r="D21" t="s">
+        <v>1</v>
+      </c>
+      <c r="E21" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" t="s">
+        <v>30</v>
+      </c>
+      <c r="B22">
+        <v>10</v>
+      </c>
+      <c r="C22">
+        <v>10</v>
+      </c>
+      <c r="D22">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" t="s">
+        <v>31</v>
+      </c>
+      <c r="B23">
+        <v>4</v>
+      </c>
+      <c r="C23">
+        <v>4</v>
+      </c>
+      <c r="D23">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" t="s">
+        <v>32</v>
+      </c>
+      <c r="B24">
+        <v>0.1</v>
+      </c>
+      <c r="C24">
+        <v>0.01</v>
+      </c>
+      <c r="D24">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" t="s">
+        <v>33</v>
+      </c>
+      <c r="B26">
+        <v>4.4956005885581796</v>
+      </c>
+      <c r="C26">
+        <v>3.46194675873631</v>
+      </c>
+      <c r="D26">
+        <v>-9.1322402802024492</v>
+      </c>
+      <c r="E26">
+        <v>2.3149222731605801</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" t="s">
+        <v>34</v>
+      </c>
+      <c r="B27">
+        <v>3.13366123357082</v>
+      </c>
+      <c r="C27">
+        <v>2.2632069119990099</v>
+      </c>
+      <c r="D27">
+        <v>-10.148668956656399</v>
+      </c>
+      <c r="E27">
+        <v>1.03625779573425</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" t="s">
+        <v>35</v>
+      </c>
+      <c r="B28">
+        <v>2.6951344454883599</v>
+      </c>
+      <c r="C28">
+        <v>0.99356715988108402</v>
+      </c>
+      <c r="D28">
+        <v>-10.872890734491</v>
+      </c>
+      <c r="E28">
+        <v>0.55493018861950005</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" t="s">
+        <v>40</v>
+      </c>
+      <c r="B29">
+        <v>1.010129958142</v>
+      </c>
+      <c r="C29">
+        <v>-1.08639304558274</v>
+      </c>
+      <c r="D29">
+        <v>-12.137478965246601</v>
+      </c>
+      <c r="E29">
+        <v>0.789269517643991</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
